--- a/analysis/KEGG_raw_data/PNA79_16h_vs_H2O_16h_KEGG_FNN_16h.xlsx
+++ b/analysis/KEGG_raw_data/PNA79_16h_vs_H2O_16h_KEGG_FNN_16h.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="294">
   <si>
     <t>NGenes</t>
   </si>
@@ -44,6 +44,9 @@
     <t>fnu00051</t>
   </si>
   <si>
+    <t>fnu04980</t>
+  </si>
+  <si>
     <t>fnu03440</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>fnu00300</t>
   </si>
   <si>
+    <t>fnu00410</t>
+  </si>
+  <si>
     <t>fnu00480</t>
   </si>
   <si>
@@ -89,22 +95,28 @@
     <t>fnu01100</t>
   </si>
   <si>
+    <t>fnu00620</t>
+  </si>
+  <si>
+    <t>fnu00640</t>
+  </si>
+  <si>
+    <t>fnu00280</t>
+  </si>
+  <si>
+    <t>fnu00350</t>
+  </si>
+  <si>
     <t>fnu01110</t>
   </si>
   <si>
-    <t>fnu00620</t>
-  </si>
-  <si>
-    <t>fnu00350</t>
-  </si>
-  <si>
-    <t>fnu00640</t>
-  </si>
-  <si>
     <t>fnu00643</t>
   </si>
   <si>
-    <t>fnu00410</t>
+    <t>fnu00071</t>
+  </si>
+  <si>
+    <t>fnu00650</t>
   </si>
   <si>
     <t>fnu03430</t>
@@ -113,15 +125,6 @@
     <t>fnu00010</t>
   </si>
   <si>
-    <t>fnu00280</t>
-  </si>
-  <si>
-    <t>fnu00071</t>
-  </si>
-  <si>
-    <t>fnu00650</t>
-  </si>
-  <si>
     <t>fnu01120</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t>fnu03010</t>
   </si>
   <si>
+    <t>fnu00720</t>
+  </si>
+  <si>
     <t>fnu00360</t>
   </si>
   <si>
@@ -140,171 +146,180 @@
     <t>fnu01212</t>
   </si>
   <si>
+    <t>fnu00760</t>
+  </si>
+  <si>
+    <t>fnu00020</t>
+  </si>
+  <si>
+    <t>fnu00260</t>
+  </si>
+  <si>
+    <t>fnu00780</t>
+  </si>
+  <si>
+    <t>fnu00550</t>
+  </si>
+  <si>
+    <t>fnu01230</t>
+  </si>
+  <si>
+    <t>fnu00362</t>
+  </si>
+  <si>
+    <t>fnu00970</t>
+  </si>
+  <si>
+    <t>fnu00860</t>
+  </si>
+  <si>
+    <t>fnu00250</t>
+  </si>
+  <si>
+    <t>fnu00240</t>
+  </si>
+  <si>
+    <t>fnu01240</t>
+  </si>
+  <si>
+    <t>fnu00430</t>
+  </si>
+  <si>
+    <t>fnu01200</t>
+  </si>
+  <si>
+    <t>fnu00680</t>
+  </si>
+  <si>
     <t>fnu00670</t>
   </si>
   <si>
-    <t>fnu00020</t>
-  </si>
-  <si>
-    <t>fnu00260</t>
-  </si>
-  <si>
-    <t>fnu00780</t>
-  </si>
-  <si>
-    <t>fnu00550</t>
-  </si>
-  <si>
-    <t>fnu01230</t>
-  </si>
-  <si>
-    <t>fnu00362</t>
-  </si>
-  <si>
-    <t>fnu00970</t>
-  </si>
-  <si>
-    <t>fnu00860</t>
-  </si>
-  <si>
-    <t>fnu00250</t>
-  </si>
-  <si>
-    <t>fnu00240</t>
-  </si>
-  <si>
-    <t>fnu01240</t>
+    <t>fnu00470</t>
+  </si>
+  <si>
+    <t>fnu00061</t>
+  </si>
+  <si>
+    <t>fnu02020</t>
+  </si>
+  <si>
+    <t>fnu00541</t>
+  </si>
+  <si>
+    <t>fnu00340</t>
+  </si>
+  <si>
+    <t>fnu00310</t>
+  </si>
+  <si>
+    <t>fnu00561</t>
+  </si>
+  <si>
+    <t>fnu00523</t>
+  </si>
+  <si>
+    <t>fnu01502</t>
+  </si>
+  <si>
+    <t>fnu00630</t>
+  </si>
+  <si>
+    <t>fnu04122</t>
+  </si>
+  <si>
+    <t>fnu00460</t>
+  </si>
+  <si>
+    <t>fnu00130</t>
+  </si>
+  <si>
+    <t>fnu00540</t>
+  </si>
+  <si>
+    <t>fnu00220</t>
+  </si>
+  <si>
+    <t>fnu00730</t>
+  </si>
+  <si>
+    <t>fnu00450</t>
+  </si>
+  <si>
+    <t>fnu02024</t>
+  </si>
+  <si>
+    <t>fnu03410</t>
+  </si>
+  <si>
+    <t>fnu00030</t>
+  </si>
+  <si>
+    <t>fnu02010</t>
+  </si>
+  <si>
+    <t>fnu00710</t>
+  </si>
+  <si>
+    <t>fnu04981</t>
+  </si>
+  <si>
+    <t>fnu03030</t>
+  </si>
+  <si>
+    <t>fnu01250</t>
+  </si>
+  <si>
+    <t>fnu00625</t>
+  </si>
+  <si>
+    <t>fnu00900</t>
+  </si>
+  <si>
+    <t>fnu00920</t>
+  </si>
+  <si>
+    <t>fnu00520</t>
+  </si>
+  <si>
+    <t>fnu03020</t>
+  </si>
+  <si>
+    <t>fnu00040</t>
+  </si>
+  <si>
+    <t>fnu00910</t>
+  </si>
+  <si>
+    <t>fnu03018</t>
+  </si>
+  <si>
+    <t>fnu00330</t>
+  </si>
+  <si>
+    <t>fnu00270</t>
+  </si>
+  <si>
+    <t>fnu00521</t>
+  </si>
+  <si>
+    <t>fnu01501</t>
+  </si>
+  <si>
+    <t>fnu00052</t>
+  </si>
+  <si>
+    <t>fnu00740</t>
+  </si>
+  <si>
+    <t>fnu00770</t>
+  </si>
+  <si>
+    <t>fnu00074</t>
   </si>
   <si>
     <t>fnu01503</t>
   </si>
   <si>
-    <t>fnu00430</t>
-  </si>
-  <si>
-    <t>fnu00760</t>
-  </si>
-  <si>
-    <t>fnu01200</t>
-  </si>
-  <si>
-    <t>fnu00680</t>
-  </si>
-  <si>
-    <t>fnu00470</t>
-  </si>
-  <si>
-    <t>fnu00061</t>
-  </si>
-  <si>
-    <t>fnu00541</t>
-  </si>
-  <si>
-    <t>fnu00340</t>
-  </si>
-  <si>
-    <t>fnu02020</t>
-  </si>
-  <si>
-    <t>fnu00310</t>
-  </si>
-  <si>
-    <t>fnu00561</t>
-  </si>
-  <si>
-    <t>fnu00920</t>
-  </si>
-  <si>
-    <t>fnu00523</t>
-  </si>
-  <si>
-    <t>fnu01502</t>
-  </si>
-  <si>
-    <t>fnu00630</t>
-  </si>
-  <si>
-    <t>fnu04122</t>
-  </si>
-  <si>
-    <t>fnu00460</t>
-  </si>
-  <si>
-    <t>fnu00130</t>
-  </si>
-  <si>
-    <t>fnu00540</t>
-  </si>
-  <si>
-    <t>fnu00730</t>
-  </si>
-  <si>
-    <t>fnu00450</t>
-  </si>
-  <si>
-    <t>fnu02024</t>
-  </si>
-  <si>
-    <t>fnu03410</t>
-  </si>
-  <si>
-    <t>fnu00030</t>
-  </si>
-  <si>
-    <t>fnu02010</t>
-  </si>
-  <si>
-    <t>fnu03030</t>
-  </si>
-  <si>
-    <t>fnu01250</t>
-  </si>
-  <si>
-    <t>fnu00625</t>
-  </si>
-  <si>
-    <t>fnu00900</t>
-  </si>
-  <si>
-    <t>fnu00520</t>
-  </si>
-  <si>
-    <t>fnu03020</t>
-  </si>
-  <si>
-    <t>fnu00040</t>
-  </si>
-  <si>
-    <t>fnu00910</t>
-  </si>
-  <si>
-    <t>fnu03018</t>
-  </si>
-  <si>
-    <t>fnu00220</t>
-  </si>
-  <si>
-    <t>fnu00330</t>
-  </si>
-  <si>
-    <t>fnu01501</t>
-  </si>
-  <si>
-    <t>fnu00270</t>
-  </si>
-  <si>
-    <t>fnu00521</t>
-  </si>
-  <si>
-    <t>fnu00052</t>
-  </si>
-  <si>
-    <t>fnu00740</t>
-  </si>
-  <si>
-    <t>fnu00770</t>
-  </si>
-  <si>
     <t>fnu00552</t>
   </si>
   <si>
@@ -320,6 +335,9 @@
     <t>Fructose and mannose metabolism</t>
   </si>
   <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
     <t>Homologous recombination</t>
   </si>
   <si>
@@ -341,6 +359,9 @@
     <t>Lysine biosynthesis</t>
   </si>
   <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
     <t>Glutathione metabolism</t>
   </si>
   <si>
@@ -362,22 +383,28 @@
     <t>Metabolic pathways</t>
   </si>
   <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
     <t>Biosynthesis of secondary metabolites</t>
   </si>
   <si>
-    <t>Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t>Tyrosine metabolism</t>
-  </si>
-  <si>
-    <t>Propanoate metabolism</t>
-  </si>
-  <si>
     <t>Styrene degradation</t>
   </si>
   <si>
-    <t>beta-Alanine metabolism</t>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
   </si>
   <si>
     <t>Mismatch repair</t>
@@ -386,15 +413,6 @@
     <t>Glycolysis / Gluconeogenesis</t>
   </si>
   <si>
-    <t>Valine, leucine and isoleucine degradation</t>
-  </si>
-  <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
     <t>Microbial metabolism in diverse environments</t>
   </si>
   <si>
@@ -404,6 +422,9 @@
     <t>Ribosome</t>
   </si>
   <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
     <t>Phenylalanine metabolism</t>
   </si>
   <si>
@@ -413,171 +434,180 @@
     <t>Fatty acid metabolism</t>
   </si>
   <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
+    <t>Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>Benzoate degradation</t>
+  </si>
+  <si>
+    <t>Aminoacyl-tRNA biosynthesis</t>
+  </si>
+  <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>Methane metabolism</t>
+  </si>
+  <si>
     <t>One carbon pool by folate</t>
   </si>
   <si>
-    <t>Citrate cycle (TCA cycle)</t>
-  </si>
-  <si>
-    <t>Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
-    <t>Biotin metabolism</t>
-  </si>
-  <si>
-    <t>Peptidoglycan biosynthesis</t>
-  </si>
-  <si>
-    <t>Biosynthesis of amino acids</t>
-  </si>
-  <si>
-    <t>Benzoate degradation</t>
-  </si>
-  <si>
-    <t>Aminoacyl-tRNA biosynthesis</t>
-  </si>
-  <si>
-    <t>Porphyrin metabolism</t>
-  </si>
-  <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>Pyrimidine metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of cofactors</t>
+    <t>D-Amino acid metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Two-component system</t>
+  </si>
+  <si>
+    <t>O-Antigen nucleotide sugar biosynthesis</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>Polyketide sugar unit biosynthesis</t>
+  </si>
+  <si>
+    <t>Vancomycin resistance</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Sulfur relay system</t>
+  </si>
+  <si>
+    <t>Cyanoamino acid metabolism</t>
+  </si>
+  <si>
+    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Arginine biosynthesis</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Quorum sensing</t>
+  </si>
+  <si>
+    <t>Base excision repair</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>ABC transporters</t>
+  </si>
+  <si>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
+    <t>Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>RNA polymerase</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>beta-Lactam resistance</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
+    <t>Mycolic acid biosynthesis</t>
   </si>
   <si>
     <t>Cationic antimicrobial peptide (CAMP) resistance</t>
   </si>
   <si>
-    <t>Taurine and hypotaurine metabolism</t>
-  </si>
-  <si>
-    <t>Nicotinate and nicotinamide metabolism</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
-    <t>Methane metabolism</t>
-  </si>
-  <si>
-    <t>D-Amino acid metabolism</t>
-  </si>
-  <si>
-    <t>Fatty acid biosynthesis</t>
-  </si>
-  <si>
-    <t>O-Antigen nucleotide sugar biosynthesis</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
-    <t>Two-component system</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Glycerolipid metabolism</t>
-  </si>
-  <si>
-    <t>Sulfur metabolism</t>
-  </si>
-  <si>
-    <t>Polyketide sugar unit biosynthesis</t>
-  </si>
-  <si>
-    <t>Vancomycin resistance</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Sulfur relay system</t>
-  </si>
-  <si>
-    <t>Cyanoamino acid metabolism</t>
-  </si>
-  <si>
-    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
-  </si>
-  <si>
-    <t>Lipopolysaccharide biosynthesis</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>Quorum sensing</t>
-  </si>
-  <si>
-    <t>Base excision repair</t>
-  </si>
-  <si>
-    <t>Pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>ABC transporters</t>
-  </si>
-  <si>
-    <t>DNA replication</t>
-  </si>
-  <si>
-    <t>Biosynthesis of nucleotide sugars</t>
-  </si>
-  <si>
-    <t>Chloroalkane and chloroalkene degradation</t>
-  </si>
-  <si>
-    <t>Terpenoid backbone biosynthesis</t>
-  </si>
-  <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>RNA polymerase</t>
-  </si>
-  <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>Arginine biosynthesis</t>
-  </si>
-  <si>
-    <t>Arginine and proline metabolism</t>
-  </si>
-  <si>
-    <t>beta-Lactam resistance</t>
-  </si>
-  <si>
-    <t>Cysteine and methionine metabolism</t>
-  </si>
-  <si>
-    <t>Streptomycin biosynthesis</t>
-  </si>
-  <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
-    <t>Riboflavin metabolism</t>
-  </si>
-  <si>
-    <t>Pantothenate and CoA biosynthesis</t>
-  </si>
-  <si>
     <t>Teichoic acid biosynthesis</t>
   </si>
   <si>
@@ -587,6 +617,9 @@
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_03680</t>
   </si>
   <si>
+    <t>cds-C4N14_04180;cds-C4N14_05600</t>
+  </si>
+  <si>
     <t>cds-C4N14_04335;cds-C4N14_04465;cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_10095;cds-C4N14_09560;cds-C4N14_09505;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_06635;cds-C4N14_06360;cds-C4N14_06045;cds-C4N14_05595;cds-C4N14_10345;cds-C4N14_10885;cds-C4N14_00445;cds-C4N14_00855;cds-C4N14_03915;cds-C4N14_02900;cds-C4N14_02340</t>
   </si>
   <si>
@@ -611,6 +644,9 @@
     <t>cds-C4N14_04745;cds-C4N14_06005;cds-C4N14_10725</t>
   </si>
   <si>
+    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_09985;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_05745;cds-C4N14_10475;cds-C4N14_01585;cds-C4N14_03545;cds-C4N14_02995</t>
   </si>
   <si>
@@ -629,25 +665,31 @@
     <t>cds-C4N14_06380;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06680;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03430;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
     <t>cds-C4N14_02800;cds-C4N14_04385;cds-C4N14_04670;cds-C4N14_05180;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_08240;cds-C4N14_06915;cds-C4N14_06555;cds-C4N14_06310;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10310;cds-C4N14_10535;cds-C4N14_00215;cds-C4N14_01395</t>
   </si>
   <si>
+    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_06380;cds-C4N14_03080</t>
   </si>
   <si>
-    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10550;cds-C4N14_00210</t>
+    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10420;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
   </si>
   <si>
     <t>cds-C4N14_04390;cds-C4N14_04395</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
   </si>
   <si>
     <t>cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_09610;cds-C4N14_09560;cds-C4N14_09270;cds-C4N14_09150;cds-C4N14_08755;cds-C4N14_07585;cds-C4N14_06825;cds-C4N14_05595;cds-C4N14_05460;cds-C4N14_10345;cds-C4N14_00445;cds-C4N14_00470;cds-C4N14_01175;cds-C4N14_03915;cds-C4N14_03745;cds-C4N14_03460;cds-C4N14_02900</t>
@@ -656,16 +698,7 @@
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09430;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_07595;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_10260;cds-C4N14_10535;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
   </si>
   <si>
     <t>cds-C4N14_02370;cds-C4N14_02675;cds-C4N14_05250;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00220;cds-C4N14_00225;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890</t>
@@ -674,16 +707,19 @@
     <t>cds-C4N14_05025;cds-C4N14_05030;cds-C4N14_05045;cds-C4N14_05050;cds-C4N14_10030;cds-C4N14_09815;cds-C4N14_06570;cds-C4N14_06560;cds-C4N14_05720;cds-C4N14_05710;cds-C4N14_05705;cds-C4N14_05700;cds-C4N14_10250;cds-C4N14_10400;cds-C4N14_10615;cds-C4N14_00320;cds-C4N14_00325;cds-C4N14_00660;cds-C4N14_00685;cds-C4N14_00690;cds-C4N14_00695;cds-C4N14_00700;cds-C4N14_00705;cds-C4N14_00710;cds-C4N14_00715;cds-C4N14_00720;cds-C4N14_00725;cds-C4N14_00730;cds-C4N14_00735;cds-C4N14_00740;cds-C4N14_00745;cds-C4N14_00750;cds-C4N14_00755;cds-C4N14_00760;cds-C4N14_00765;cds-C4N14_00770;cds-C4N14_00775;cds-C4N14_00780;cds-C4N14_00785;cds-C4N14_00840;cds-C4N14_00845;cds-C4N14_01475;cds-C4N14_03925;cds-C4N14_03655;cds-C4N14_03125;cds-C4N14_01865;cds-C4N14_01870;cds-C4N14_01875;cds-C4N14_01880;cds-C4N14_01900</t>
   </si>
   <si>
+    <t>cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09750;cds-C4N14_08525;cds-C4N14_08240;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_07070;cds-C4N14_06380</t>
   </si>
   <si>
     <t>cds-C4N14_02440;cds-C4N14_04515;cds-C4N14_09610;cds-C4N14_09270;cds-C4N14_06700;cds-C4N14_06640;cds-C4N14_01175</t>
   </si>
   <si>
-    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03815</t>
-  </si>
-  <si>
-    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_02080</t>
+    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210;cds-C4N14_03815</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120</t>
   </si>
   <si>
     <t>cds-C4N14_06555;cds-C4N14_06270;cds-C4N14_10535</t>
@@ -719,45 +755,39 @@
     <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02625;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02805;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04575;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09755;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09260;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08525;cds-C4N14_08400;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07725;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07100;cds-C4N14_06485;cds-C4N14_06120;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05600;cds-C4N14_10135;cds-C4N14_10735;cds-C4N14_10865;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00585;cds-C4N14_00670;cds-C4N14_01225;cds-C4N14_01230;cds-C4N14_01235;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01515;cds-C4N14_03415;cds-C4N14_02030;cds-C4N14_02080</t>
   </si>
   <si>
-    <t>cds-C4N14_09255;cds-C4N14_05430</t>
-  </si>
-  <si>
     <t>cds-C4N14_09785;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_06265;cds-C4N14_06260</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_03430</t>
-  </si>
-  <si>
-    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
   </si>
   <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_01390</t>
   </si>
   <si>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_05175;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_10125;cds-C4N14_09770;cds-C4N14_09465;cds-C4N14_06320;cds-C4N14_10420;cds-C4N14_10690;cds-C4N14_10710;cds-C4N14_00495;cds-C4N14_01240;cds-C4N14_03755;cds-C4N14_03750</t>
   </si>
   <si>
     <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09260;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_03815</t>
   </si>
   <si>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+  </si>
+  <si>
     <t>cds-C4N14_05280;cds-C4N14_05800;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_03065;cds-C4N14_02215</t>
   </si>
   <si>
     <t>cds-C4N14_10035;cds-C4N14_09955;cds-C4N14_08930;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470</t>
   </si>
   <si>
-    <t>cds-C4N14_04325;cds-C4N14_04330;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
-  </si>
-  <si>
     <t>cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720</t>
   </si>
   <si>
     <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09805;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
   </si>
   <si>
-    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06030;cds-C4N14_01300</t>
-  </si>
-  <si>
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
@@ -779,13 +809,16 @@
     <t>cds-C4N14_04460;cds-C4N14_09720;cds-C4N14_09520;cds-C4N14_09265;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_08185;cds-C4N14_07655;cds-C4N14_07525;cds-C4N14_07090;cds-C4N14_06495;cds-C4N14_06010;cds-C4N14_00590;cds-C4N14_01040;cds-C4N14_01500;cds-C4N14_03530</t>
   </si>
   <si>
+    <t>cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
+  </si>
+  <si>
     <t>cds-C4N14_02625;cds-C4N14_08830;cds-C4N14_07725;cds-C4N14_06090;cds-C4N14_05620;cds-C4N14_10740;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365</t>
   </si>
   <si>
     <t>cds-C4N14_04180;cds-C4N14_09115;cds-C4N14_06305;cds-C4N14_05790;cds-C4N14_10525;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_03100</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10245;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
+    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
   </si>
   <si>
     <t>cds-C4N14_02570;cds-C4N14_02620;cds-C4N14_05260;cds-C4N14_07665;cds-C4N14_06000;cds-C4N14_01175;cds-C4N14_02900</t>
@@ -794,7 +827,13 @@
     <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09430;cds-C4N14_08825;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
+    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_01630;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_10260;cds-C4N14_03680</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_07660</t>
   </si>
   <si>
     <t>cds-C4N14_04760;cds-C4N14_09560;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_05595;cds-C4N14_05505;cds-C4N14_10285;cds-C4N14_10345;cds-C4N14_00445;cds-C4N14_01175;cds-C4N14_03930;cds-C4N14_03915</t>
@@ -809,6 +848,9 @@
     <t>cds-C4N14_02450;cds-C4N14_09835;cds-C4N14_09750;cds-C4N14_06090;cds-C4N14_05480;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10740;cds-C4N14_00465;cds-C4N14_01475;cds-C4N14_01505</t>
   </si>
   <si>
+    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06710;cds-C4N14_06030;cds-C4N14_01300</t>
+  </si>
+  <si>
     <t>cds-C4N14_05230;cds-C4N14_05280;cds-C4N14_09965;cds-C4N14_09430;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07595;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_10695;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_00125;cds-C4N14_00270;cds-C4N14_00950;cds-C4N14_03065;cds-C4N14_01950;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
@@ -824,21 +866,18 @@
     <t>cds-C4N14_01725;cds-C4N14_10105;cds-C4N14_09845;cds-C4N14_09340;cds-C4N14_09195;cds-C4N14_08865;cds-C4N14_06080;cds-C4N14_01060;cds-C4N14_01390;cds-C4N14_03510;cds-C4N14_03145</t>
   </si>
   <si>
-    <t>cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
-  </si>
-  <si>
     <t>cds-C4N14_09955;cds-C4N14_09725;cds-C4N14_08445;cds-C4N14_06875;cds-C4N14_06380</t>
   </si>
   <si>
-    <t>cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_00485</t>
-  </si>
-  <si>
     <t>cds-C4N14_04180;cds-C4N14_05175;cds-C4N14_09115;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06275;cds-C4N14_06030;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10525;cds-C4N14_00370;cds-C4N14_01300;cds-C4N14_01305</t>
   </si>
   <si>
     <t>cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
+  </si>
+  <si>
     <t>cds-C4N14_05280;cds-C4N14_10105;cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01055;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
@@ -846,6 +885,12 @@
   </si>
   <si>
     <t>cds-C4N14_04160;cds-C4N14_09955;cds-C4N14_08670;cds-C4N14_08400;cds-C4N14_10145;cds-C4N14_03415</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04125;cds-C4N14_10145</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
   </si>
   <si>
     <t>cds-C4N14_05905;cds-C4N14_01035</t>
@@ -934,25 +979,25 @@
         <v>29.0</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
         <v>3.118702510104315E-8</v>
       </c>
       <c r="E2" t="n">
-        <v>2.7110982552261933E-6</v>
+        <v>2.4492561749638744E-6</v>
       </c>
       <c r="F2" t="n">
         <v>1.0492062423686906E-8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.147618727106072E-8</v>
+        <v>3.32248643416752E-8</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
@@ -963,25 +1008,25 @@
         <v>10.0</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>6.024662789391541E-8</v>
       </c>
       <c r="E3" t="n">
-        <v>2.7110982552261933E-6</v>
+        <v>2.4492561749638744E-6</v>
       </c>
       <c r="F3" t="n">
         <v>2.222203470992412E-8</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7142374968376316E-8</v>
+        <v>6.209097933655269E-8</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -989,28 +1034,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>2.537235246748634E-7</v>
+        <v>7.734493184096446E-8</v>
       </c>
       <c r="E4" t="n">
-        <v>7.611705740245902E-6</v>
+        <v>2.4492561749638744E-6</v>
       </c>
       <c r="F4" t="n">
-        <v>6.313183199375452E-13</v>
+        <v>0.20968105746716587</v>
       </c>
       <c r="G4" t="n">
-        <v>9.469774799063179E-12</v>
+        <v>0.2399963910768766</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1018,28 +1063,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
-        <v>5.699480170183265E-7</v>
+        <v>2.537235246748634E-7</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2823830382912345E-5</v>
+        <v>6.025933711028006E-6</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2129185799125542E-11</v>
+        <v>6.313183199375452E-13</v>
       </c>
       <c r="G5" t="n">
-        <v>9.096889349344156E-11</v>
+        <v>9.995873399011133E-12</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -1047,28 +1092,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
-        <v>7.52149105861826E-7</v>
+        <v>5.699480170183265E-7</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3538683905512867E-5</v>
+        <v>1.0829012323348202E-5</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2836197717035845E-12</v>
+        <v>1.2129185799125542E-11</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2836197717035844E-11</v>
+        <v>9.602272090974388E-11</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -1076,28 +1121,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>123.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>9.881254624656927E-7</v>
+        <v>7.52149105861826E-7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.482188193698539E-5</v>
+        <v>1.1909027509478911E-5</v>
       </c>
       <c r="F7" t="n">
-        <v>2.7721535333716173E-14</v>
+        <v>2.2836197717035845E-12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.4949381800344555E-12</v>
+        <v>2.4355974513270633E-11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -1105,28 +1150,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0</v>
+        <v>123.0</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1947539777394714E-6</v>
+        <v>9.881254624656927E-7</v>
       </c>
       <c r="E8" t="n">
-        <v>1.4871001688944834E-5</v>
+        <v>1.3410274133462973E-5</v>
       </c>
       <c r="F8" t="n">
-        <v>1.18460837630455E-8</v>
+        <v>2.7721535333716173E-14</v>
       </c>
       <c r="G8" t="n">
-        <v>3.331711058356547E-8</v>
+        <v>2.6335458567030365E-12</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -1134,28 +1179,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>1.3218668167950964E-6</v>
+        <v>1.1947539777394714E-6</v>
       </c>
       <c r="E9" t="n">
-        <v>1.4871001688944834E-5</v>
+        <v>1.3953038621726018E-5</v>
       </c>
       <c r="F9" t="n">
-        <v>2.8195081584093286E-11</v>
+        <v>1.18460837630455E-8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.785303313810065E-10</v>
+        <v>3.630251475772008E-8</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -1163,28 +1208,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>1.8342338747297288E-6</v>
+        <v>1.3218668167950964E-6</v>
       </c>
       <c r="E10" t="n">
-        <v>1.755448313039397E-5</v>
+        <v>1.3953038621726018E-5</v>
       </c>
       <c r="F10" t="n">
-        <v>2.8091478055630464E-8</v>
+        <v>2.8195081584093286E-11</v>
       </c>
       <c r="G10" t="n">
-        <v>7.022869513907616E-8</v>
+        <v>1.885922444534213E-10</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -1192,28 +1237,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D11" t="n">
-        <v>1.95049812559933E-6</v>
+        <v>1.8342338747297288E-6</v>
       </c>
       <c r="E11" t="n">
-        <v>1.755448313039397E-5</v>
+        <v>1.684521108472149E-5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.11302442433227136</v>
+        <v>2.8091478055630464E-8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.13384471302505818</v>
+        <v>7.624829757956841E-8</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
@@ -1221,28 +1266,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
-        <v>6.065999030028464E-6</v>
+        <v>1.95049812559933E-6</v>
       </c>
       <c r="E12" t="n">
-        <v>4.396032559756042E-5</v>
+        <v>1.684521108472149E-5</v>
       </c>
       <c r="F12" t="n">
-        <v>1.3001506717905858E-6</v>
+        <v>0.11302442433227136</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4896502225777177E-6</v>
+        <v>0.13421650389457224</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
@@ -1250,28 +1295,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>6.30674818507144E-6</v>
+        <v>4.323945009233799E-6</v>
       </c>
       <c r="E13" t="n">
-        <v>4.396032559756042E-5</v>
+        <v>3.423123132310091E-5</v>
       </c>
       <c r="F13" t="n">
-        <v>2.068487754954616E-5</v>
+        <v>0.06541312642490314</v>
       </c>
       <c r="G13" t="n">
-        <v>3.447479591591027E-5</v>
+        <v>0.08070450662812725</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
@@ -1279,28 +1324,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>6.349824808536505E-6</v>
+        <v>6.065999030028464E-6</v>
       </c>
       <c r="E14" t="n">
-        <v>4.396032559756042E-5</v>
+        <v>4.0215557120731195E-5</v>
       </c>
       <c r="F14" t="n">
-        <v>3.5483869854552025E-12</v>
+        <v>1.3001506717905858E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9032257153724385E-11</v>
+        <v>2.573214871252201E-6</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -1308,28 +1353,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>8.238033866863249E-6</v>
+        <v>6.30674818507144E-6</v>
       </c>
       <c r="E15" t="n">
-        <v>5.199703273634095E-5</v>
+        <v>4.0215557120731195E-5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05258310859738475</v>
+        <v>2.068487754954616E-5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06572888574673094</v>
+        <v>3.509041727155152E-5</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
@@ -1337,28 +1382,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>9.220751580354018E-6</v>
+        <v>6.349824808536505E-6</v>
       </c>
       <c r="E16" t="n">
-        <v>5.199703273634095E-5</v>
+        <v>4.0215557120731195E-5</v>
       </c>
       <c r="F16" t="n">
-        <v>1.7958311539144142E-5</v>
+        <v>3.5483869854552025E-12</v>
       </c>
       <c r="G16" t="n">
-        <v>3.0495246009867414E-5</v>
+        <v>3.0645160328931295E-11</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -1369,25 +1414,25 @@
         <v>3.0</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D17" t="n">
-        <v>9.677635046999654E-6</v>
+        <v>8.238033866863249E-6</v>
       </c>
       <c r="E17" t="n">
-        <v>5.199703273634095E-5</v>
+        <v>4.891332608450054E-5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09022046602117231</v>
+        <v>0.05258310859738475</v>
       </c>
       <c r="G17" t="n">
-        <v>0.10971893853893284</v>
+        <v>0.06660527089002068</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
@@ -1395,28 +1440,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>359.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
-        <v>9.86546400134759E-6</v>
+        <v>9.220751580354018E-6</v>
       </c>
       <c r="E18" t="n">
-        <v>5.199703273634095E-5</v>
+        <v>5.0792929788510484E-5</v>
       </c>
       <c r="F18" t="n">
-        <v>2.2372548296825757E-12</v>
+        <v>1.7958311539144142E-5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.2836197717035844E-11</v>
+        <v>3.101890174943079E-5</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
@@ -1424,28 +1469,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>116.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0399406547268191E-5</v>
+        <v>9.677635046999654E-6</v>
       </c>
       <c r="E19" t="n">
-        <v>5.199703273634095E-5</v>
+        <v>5.0792929788510484E-5</v>
       </c>
       <c r="F19" t="n">
-        <v>3.363492968088998E-10</v>
+        <v>0.09022046602117231</v>
       </c>
       <c r="G19" t="n">
-        <v>1.316149422295695E-9</v>
+        <v>0.10988390092322269</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1453,28 +1498,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>21.0</v>
+        <v>356.0</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>1.2016277366638922E-5</v>
+        <v>1.0158585957702097E-5</v>
       </c>
       <c r="E20" t="n">
-        <v>5.6919208578815943E-5</v>
+        <v>5.0792929788510484E-5</v>
       </c>
       <c r="F20" t="n">
-        <v>3.047028999079533E-8</v>
+        <v>2.307408111783534E-12</v>
       </c>
       <c r="G20" t="n">
-        <v>7.216647629398893E-8</v>
+        <v>2.4355974513270633E-11</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
@@ -1482,28 +1527,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>1.281911756304476E-5</v>
+        <v>1.2016277366638922E-5</v>
       </c>
       <c r="E21" t="n">
-        <v>5.7686029033701424E-5</v>
+        <v>5.119604252784571E-5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3021448809464592</v>
+        <v>3.047028999079533E-8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.34862870878437596</v>
+        <v>7.823452835474475E-8</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
@@ -1511,28 +1556,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D22" t="n">
-        <v>1.4431932201973072E-5</v>
+        <v>1.2078024649904819E-5</v>
       </c>
       <c r="E22" t="n">
-        <v>6.185113800845602E-5</v>
+        <v>5.119604252784571E-5</v>
       </c>
       <c r="F22" t="n">
-        <v>2.7419963769343808E-5</v>
+        <v>1.0220975888018573E-4</v>
       </c>
       <c r="G22" t="n">
-        <v>4.4067798915016834E-5</v>
+        <v>1.6183211822696074E-4</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -1540,28 +1585,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D23" t="n">
-        <v>1.7162839469412555E-5</v>
+        <v>1.2795311337650415E-5</v>
       </c>
       <c r="E23" t="n">
-        <v>7.021161601123318E-5</v>
+        <v>5.119604252784571E-5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.30765244257670366</v>
+        <v>0.024590810124239106</v>
       </c>
       <c r="G23" t="n">
-        <v>0.35049012445447253</v>
+        <v>0.03337324231146736</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1569,28 +1614,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D24" t="n">
-        <v>1.9184720168919628E-5</v>
+        <v>1.281911756304476E-5</v>
       </c>
       <c r="E24" t="n">
-        <v>7.507064413925071E-5</v>
+        <v>5.119604252784571E-5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.015425203947147904</v>
+        <v>0.3021448809464592</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02011983123541031</v>
+        <v>0.3417114724989717</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -1598,28 +1643,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>19.0</v>
+        <v>119.0</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D25" t="n">
-        <v>2.3930566005510937E-5</v>
+        <v>1.2933737059666284E-5</v>
       </c>
       <c r="E25" t="n">
-        <v>8.973962252066601E-5</v>
+        <v>5.119604252784571E-5</v>
       </c>
       <c r="F25" t="n">
-        <v>9.067116768255318E-10</v>
+        <v>4.145289826998902E-10</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2641620365719146E-9</v>
+        <v>1.7121849285430246E-9</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -1627,28 +1672,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D26" t="n">
-        <v>2.7079824077991182E-5</v>
+        <v>1.7162839469412555E-5</v>
       </c>
       <c r="E26" t="n">
-        <v>9.060048955411246E-5</v>
+        <v>6.52187899837677E-5</v>
       </c>
       <c r="F26" t="n">
-        <v>3.5190438508056814E-8</v>
+        <v>0.30765244257670366</v>
       </c>
       <c r="G26" t="n">
-        <v>8.120870424936188E-8</v>
+        <v>0.34384684758572764</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -1656,28 +1701,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D27" t="n">
-        <v>2.7664129558829612E-5</v>
+        <v>1.8927989038479513E-5</v>
       </c>
       <c r="E27" t="n">
-        <v>9.060048955411246E-5</v>
+        <v>6.915995994829053E-5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.007556411499149459</v>
+        <v>0.002487893780429688</v>
       </c>
       <c r="G27" t="n">
-        <v>0.010626203670678926</v>
+        <v>0.003751585859378101</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1685,28 +1730,28 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D28" t="n">
-        <v>2.78028634080219E-5</v>
+        <v>2.2523185735115447E-5</v>
       </c>
       <c r="E28" t="n">
-        <v>9.060048955411246E-5</v>
+        <v>7.924824610503583E-5</v>
       </c>
       <c r="F28" t="n">
-        <v>7.721377736986155E-4</v>
+        <v>4.825183036048958E-9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0011582066605479232</v>
+        <v>1.6371156729451822E-8</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
@@ -1714,28 +1759,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D29" t="n">
-        <v>2.8186818972390542E-5</v>
+        <v>2.3930566005510937E-5</v>
       </c>
       <c r="E29" t="n">
-        <v>9.060048955411246E-5</v>
+        <v>8.119299180441211E-5</v>
       </c>
       <c r="F29" t="n">
-        <v>4.6076165141112595E-9</v>
+        <v>9.067116768255318E-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.53587217137042E-8</v>
+        <v>3.4455043719370204E-9</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -1743,28 +1788,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>70.0</v>
+        <v>22.0</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D30" t="n">
-        <v>3.117518462593172E-5</v>
+        <v>2.7079824077991182E-5</v>
       </c>
       <c r="E30" t="n">
-        <v>9.675057297702948E-5</v>
+        <v>8.870976853135042E-5</v>
       </c>
       <c r="F30" t="n">
-        <v>2.9755055230167747E-11</v>
+        <v>3.5190438508056814E-8</v>
       </c>
       <c r="G30" t="n">
-        <v>1.785303313810065E-10</v>
+        <v>8.797609627014203E-8</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
@@ -1772,28 +1817,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>14.0</v>
+        <v>69.0</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D31" t="n">
-        <v>3.433952670651503E-5</v>
+        <v>2.848418844514713E-5</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0134016827692225E-4</v>
+        <v>9.019993007629924E-5</v>
       </c>
       <c r="F31" t="n">
-        <v>1.1736677023709826E-10</v>
+        <v>3.067649958234147E-11</v>
       </c>
       <c r="G31" t="n">
-        <v>5.559478590178338E-10</v>
+        <v>1.885922444534213E-10</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -1801,28 +1846,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>50.0</v>
+        <v>14.0</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D32" t="n">
-        <v>3.4906057962051E-5</v>
+        <v>3.433952670651503E-5</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0134016827692225E-4</v>
+        <v>1.036273595748389E-4</v>
       </c>
       <c r="F32" t="n">
-        <v>7.712336002610748E-11</v>
+        <v>1.1736677023709826E-10</v>
       </c>
       <c r="G32" t="n">
-        <v>3.856168001305374E-10</v>
+        <v>5.868338511854913E-10</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
@@ -1830,28 +1875,28 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>2.0</v>
+        <v>50.0</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D33" t="n">
-        <v>6.24245733971923E-5</v>
+        <v>3.4906057962051E-5</v>
       </c>
       <c r="E33" t="n">
-        <v>1.7388148147979494E-4</v>
+        <v>1.036273595748389E-4</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5082850493539623</v>
+        <v>7.712336002610748E-11</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5445911243078168</v>
+        <v>4.07039955693345E-10</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -1859,28 +1904,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34" t="n">
-        <v>6.375654320925815E-5</v>
+        <v>5.8486747661196296E-5</v>
       </c>
       <c r="E34" t="n">
-        <v>1.7388148147979494E-4</v>
+        <v>1.6837094023677723E-4</v>
       </c>
       <c r="F34" t="n">
-        <v>2.1261200648120532E-4</v>
+        <v>7.86587697751729E-6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.299151824708358E-4</v>
+        <v>1.383811690489153E-5</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
@@ -1888,28 +1933,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D35" t="n">
-        <v>7.541587501025034E-5</v>
+        <v>6.24245733971923E-5</v>
       </c>
       <c r="E35" t="n">
-        <v>1.9963025738007443E-4</v>
+        <v>1.7305347442512928E-4</v>
       </c>
       <c r="F35" t="n">
-        <v>7.812799372721315E-8</v>
+        <v>0.5082850493539623</v>
       </c>
       <c r="G35" t="n">
-        <v>1.6741712941545673E-7</v>
+        <v>0.5365231076514048</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -1917,28 +1962,28 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D36" t="n">
-        <v>8.372814371173408E-5</v>
+        <v>6.375654320925815E-5</v>
       </c>
       <c r="E36" t="n">
-        <v>2.153009409730305E-4</v>
+        <v>1.7305347442512928E-4</v>
       </c>
       <c r="F36" t="n">
-        <v>1.1605238716498652E-8</v>
+        <v>2.1261200648120532E-4</v>
       </c>
       <c r="G36" t="n">
-        <v>3.331711058356547E-8</v>
+        <v>3.3111705927400825E-4</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
@@ -1946,28 +1991,28 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D37" t="n">
-        <v>9.046740359223438E-5</v>
+        <v>6.77028471063828E-5</v>
       </c>
       <c r="E37" t="n">
-        <v>2.2616850898058596E-4</v>
+        <v>1.7866029097517681E-4</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11990493581941918</v>
+        <v>8.447926020091266E-8</v>
       </c>
       <c r="G37" t="n">
-        <v>0.140148626282438</v>
+        <v>1.9108404093063577E-7</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
@@ -1978,25 +2023,25 @@
         <v>9.0</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D38" t="n">
-        <v>1.0235523411218404E-4</v>
+        <v>9.045657130340996E-5</v>
       </c>
       <c r="E38" t="n">
-        <v>2.4849811248307206E-4</v>
+        <v>2.2616850898058596E-4</v>
       </c>
       <c r="F38" t="n">
-        <v>6.047983289056128E-7</v>
+        <v>6.094060572194793E-8</v>
       </c>
       <c r="G38" t="n">
-        <v>1.1833010782935902E-6</v>
+        <v>1.412038425264647E-7</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
@@ -2004,28 +2049,28 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D39" t="n">
-        <v>1.0492142527063043E-4</v>
+        <v>9.046740359223438E-5</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4849811248307206E-4</v>
+        <v>2.2616850898058596E-4</v>
       </c>
       <c r="F39" t="n">
-        <v>3.959620124674469E-7</v>
+        <v>0.11990493581941918</v>
       </c>
       <c r="G39" t="n">
-        <v>7.919240249348938E-7</v>
+        <v>0.1406292457141336</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -2033,28 +2078,28 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D40" t="n">
-        <v>1.1792193709528024E-4</v>
+        <v>1.0235523411218404E-4</v>
       </c>
       <c r="E40" t="n">
-        <v>2.7212754714295436E-4</v>
+        <v>2.491883850177473E-4</v>
       </c>
       <c r="F40" t="n">
-        <v>7.161408770432574E-11</v>
+        <v>6.047983289056128E-7</v>
       </c>
       <c r="G40" t="n">
-        <v>3.791334054934892E-10</v>
+        <v>1.222464707362409E-6</v>
       </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
@@ -2062,28 +2107,28 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D41" t="n">
-        <v>1.212005150174877E-4</v>
+        <v>1.0492142527063043E-4</v>
       </c>
       <c r="E41" t="n">
-        <v>2.727011587893473E-4</v>
+        <v>2.491883850177473E-4</v>
       </c>
       <c r="F41" t="n">
-        <v>2.528148581355601E-10</v>
+        <v>3.959620124674469E-7</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0342426014636549E-9</v>
+        <v>8.177476344436402E-7</v>
       </c>
       <c r="H41" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -2091,28 +2136,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D42" t="n">
-        <v>1.355834390749917E-4</v>
+        <v>1.1792193709528024E-4</v>
       </c>
       <c r="E42" t="n">
-        <v>2.9762218333534765E-4</v>
+        <v>2.732337566841859E-4</v>
       </c>
       <c r="F42" t="n">
-        <v>0.006119214310630527</v>
+        <v>7.161408770432574E-11</v>
       </c>
       <c r="G42" t="n">
-        <v>0.008741734729472182</v>
+        <v>4.001963724653497E-10</v>
       </c>
       <c r="H42" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I42" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -2120,28 +2165,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>27.0</v>
+        <v>37.0</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D43" t="n">
-        <v>1.6137514753343022E-4</v>
+        <v>1.212005150174877E-4</v>
       </c>
       <c r="E43" t="n">
-        <v>3.458038875716362E-4</v>
+        <v>2.74144022063365E-4</v>
       </c>
       <c r="F43" t="n">
-        <v>1.2661219663619604E-13</v>
+        <v>2.528148581355601E-10</v>
       </c>
       <c r="G43" t="n">
-        <v>3.273996130996653E-12</v>
+        <v>1.0917005237671913E-9</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -2149,28 +2194,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>29.0</v>
+        <v>6.0</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D44" t="n">
-        <v>1.7461775256134659E-4</v>
+        <v>1.355834390749917E-4</v>
       </c>
       <c r="E44" t="n">
-        <v>3.65479016988865E-4</v>
+        <v>2.9954480725870254E-4</v>
       </c>
       <c r="F44" t="n">
-        <v>1.4656494139342192E-10</v>
+        <v>0.006119214310630527</v>
       </c>
       <c r="G44" t="n">
-        <v>6.595422362703987E-10</v>
+        <v>0.008807959992574244</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
@@ -2178,28 +2223,28 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D45" t="n">
-        <v>2.0510628497551862E-4</v>
+        <v>1.6137514753343022E-4</v>
       </c>
       <c r="E45" t="n">
-        <v>4.157588541552368E-4</v>
+        <v>3.484236139926334E-4</v>
       </c>
       <c r="F45" t="n">
-        <v>1.4823204346122703E-8</v>
+        <v>1.2661219663619604E-13</v>
       </c>
       <c r="G45" t="n">
-        <v>4.042692094397101E-8</v>
+        <v>3.4558848049409117E-12</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
@@ -2207,28 +2252,28 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>2.078794270776184E-4</v>
+        <v>1.7461775256134659E-4</v>
       </c>
       <c r="E46" t="n">
-        <v>4.157588541552368E-4</v>
+        <v>3.6863747762950946E-4</v>
       </c>
       <c r="F46" t="n">
-        <v>1.3411219496948002E-6</v>
+        <v>1.4656494139342192E-10</v>
       </c>
       <c r="G46" t="n">
-        <v>2.5146036556777503E-6</v>
+        <v>6.961834716187541E-10</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I46" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47">
@@ -2236,28 +2281,28 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>91.0</v>
+        <v>13.0</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D47" t="n">
-        <v>3.283552669061938E-4</v>
+        <v>2.0510628497551862E-4</v>
       </c>
       <c r="E47" t="n">
-        <v>6.424342178599445E-4</v>
+        <v>4.2018182068880315E-4</v>
       </c>
       <c r="F47" t="n">
-        <v>3.3393787786644767E-13</v>
+        <v>1.4823204346122703E-8</v>
       </c>
       <c r="G47" t="n">
-        <v>6.0108818015960585E-12</v>
+        <v>4.400638790255177E-8</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48">
@@ -2265,28 +2310,28 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D48" t="n">
-        <v>3.6871245097501654E-4</v>
+        <v>2.078794270776184E-4</v>
       </c>
       <c r="E48" t="n">
-        <v>6.980710136187657E-4</v>
+        <v>4.2018182068880315E-4</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5883883043446252</v>
+        <v>1.3411219496948002E-6</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6152276524027366</v>
+        <v>2.600134392265429E-6</v>
       </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
@@ -2294,28 +2339,28 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>5.0</v>
+        <v>91.0</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D49" t="n">
-        <v>3.7230454059667507E-4</v>
+        <v>3.283552669061938E-4</v>
       </c>
       <c r="E49" t="n">
-        <v>6.980710136187657E-4</v>
+        <v>6.498697990851753E-4</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00874419917908365</v>
+        <v>3.3393787786644767E-13</v>
       </c>
       <c r="G49" t="n">
-        <v>0.011923907971477703</v>
+        <v>6.3448196794625055E-12</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50">
@@ -2323,28 +2368,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>4.7538930562819853E-4</v>
+        <v>3.7230454059667507E-4</v>
       </c>
       <c r="E50" t="n">
-        <v>8.578372904625933E-4</v>
+        <v>7.218149256466149E-4</v>
       </c>
       <c r="F50" t="n">
-        <v>4.594301288524179E-9</v>
+        <v>0.00874419917908365</v>
       </c>
       <c r="G50" t="n">
-        <v>1.53587217137042E-8</v>
+        <v>0.012398491373327564</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51">
@@ -2352,28 +2397,28 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>4.765762724792185E-4</v>
+        <v>4.392782558671482E-4</v>
       </c>
       <c r="E51" t="n">
-        <v>8.578372904625933E-4</v>
+        <v>8.346286861475815E-4</v>
       </c>
       <c r="F51" t="n">
-        <v>5.814290374634247E-9</v>
+        <v>6.105054488295375E-9</v>
       </c>
       <c r="G51" t="n">
-        <v>1.8688790489895794E-8</v>
+        <v>1.9999316427174505E-8</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I51" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52">
@@ -2384,25 +2429,25 @@
         <v>9.0</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D52" t="n">
         <v>5.555946924643017E-4</v>
       </c>
       <c r="E52" t="n">
-        <v>9.804612219958264E-4</v>
+        <v>0.0010349312898844836</v>
       </c>
       <c r="F52" t="n">
         <v>3.7608996740281664E-5</v>
       </c>
       <c r="G52" t="n">
-        <v>5.938262643202368E-5</v>
+        <v>6.0556859158080645E-5</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
@@ -2410,28 +2455,28 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D53" t="n">
-        <v>7.494077707159117E-4</v>
+        <v>6.675028021033402E-4</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0012970519108544626</v>
+        <v>0.00121947627307341</v>
       </c>
       <c r="F53" t="n">
-        <v>3.176290432899727E-11</v>
+        <v>2.1307332672134986E-9</v>
       </c>
       <c r="G53" t="n">
-        <v>1.7866633685060964E-10</v>
+        <v>7.78537155328009E-9</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54">
@@ -2442,25 +2487,25 @@
         <v>11.0</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D54" t="n">
-        <v>8.448693006197468E-4</v>
+        <v>7.494077707159117E-4</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0014346837180335323</v>
+        <v>0.0013432780795851248</v>
       </c>
       <c r="F54" t="n">
-        <v>2.911632420970743E-6</v>
+        <v>3.176290432899727E-11</v>
       </c>
       <c r="G54" t="n">
-        <v>5.138174860536606E-6</v>
+        <v>1.885922444534213E-10</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I54" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55">
@@ -2468,28 +2513,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0021659344060529504</v>
+        <v>8.448693006197468E-4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0036098906767549174</v>
+        <v>0.0014863441399791842</v>
       </c>
       <c r="F55" t="n">
-        <v>1.4308177784527277E-6</v>
+        <v>2.911632420970743E-6</v>
       </c>
       <c r="G55" t="n">
-        <v>2.6280326543009285E-6</v>
+        <v>5.319328461388857E-6</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I55" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56">
@@ -2497,28 +2542,28 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002717336069977414</v>
+        <v>9.046732143172543E-4</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004446549932690314</v>
+        <v>0.0015626173701843483</v>
       </c>
       <c r="F56" t="n">
-        <v>2.9588965103222304E-8</v>
+        <v>4.316640926772654E-9</v>
       </c>
       <c r="G56" t="n">
-        <v>7.197315835918939E-8</v>
+        <v>1.5188181038644523E-8</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
@@ -2526,28 +2571,28 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D57" t="n">
-        <v>0.003643838867910043</v>
+        <v>0.0021659344060529504</v>
       </c>
       <c r="E57" t="n">
-        <v>0.005856169609141141</v>
+        <v>0.003674353010268398</v>
       </c>
       <c r="F57" t="n">
-        <v>7.445215473833311E-9</v>
+        <v>1.4308177784527277E-6</v>
       </c>
       <c r="G57" t="n">
-        <v>2.3105841125689585E-8</v>
+        <v>2.7185537790601824E-6</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I57" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58">
@@ -2555,28 +2600,28 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D58" t="n">
-        <v>0.004038678341885038</v>
+        <v>0.002717336069977414</v>
       </c>
       <c r="E58" t="n">
-        <v>0.006376860539818481</v>
+        <v>0.004528893449962356</v>
       </c>
       <c r="F58" t="n">
-        <v>2.6019862053392567E-6</v>
+        <v>2.9588965103222304E-8</v>
       </c>
       <c r="G58" t="n">
-        <v>4.683575169610662E-6</v>
+        <v>7.808199124461441E-8</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I58" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59">
@@ -2584,28 +2629,28 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D59" t="n">
-        <v>0.004841837502421171</v>
+        <v>0.004038678341885038</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0075131961244466455</v>
+        <v>0.0066150765944668725</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004504672786113611</v>
+        <v>2.6019862053392567E-6</v>
       </c>
       <c r="G59" t="n">
-        <v>0.006539041141132662</v>
+        <v>4.8468370491613606E-6</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
@@ -2613,28 +2658,28 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D60" t="n">
-        <v>0.007863088382516537</v>
+        <v>0.004841837502421171</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01184776537043479</v>
+        <v>0.007796179029322225</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09143244878244404</v>
+        <v>0.004504672786113611</v>
       </c>
       <c r="G60" t="n">
-        <v>0.10971893853893284</v>
+        <v>0.006583752533550662</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61">
@@ -2645,25 +2690,25 @@
         <v>3.0</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D61" t="n">
         <v>0.007898510246956527</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01184776537043479</v>
+        <v>0.012505974557681168</v>
       </c>
       <c r="F61" t="n">
         <v>0.3889934973853248</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4218001778877016</v>
+        <v>0.4152177781079309</v>
       </c>
       <c r="H61" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I61" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62">
@@ -2674,25 +2719,25 @@
         <v>6.0</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D62" t="n">
         <v>0.008477831957205726</v>
       </c>
       <c r="E62" t="n">
-        <v>0.012508276658172383</v>
+        <v>0.013203180916959737</v>
       </c>
       <c r="F62" t="n">
         <v>7.283719797850106E-4</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0011110759013669652</v>
+        <v>0.0011160538399931615</v>
       </c>
       <c r="H62" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
@@ -2703,25 +2748,25 @@
         <v>3.0</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D63" t="n">
         <v>0.008835763712345481</v>
       </c>
       <c r="E63" t="n">
-        <v>0.012826108614695055</v>
+        <v>0.013538670204400334</v>
       </c>
       <c r="F63" t="n">
         <v>0.32523823839689026</v>
       </c>
       <c r="G63" t="n">
-        <v>0.36589301819650155</v>
+        <v>0.35927479822912295</v>
       </c>
       <c r="H63" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64">
@@ -2732,25 +2777,25 @@
         <v>5.0</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D64" t="n">
         <v>0.009490257448302375</v>
       </c>
       <c r="E64" t="n">
-        <v>0.013557510640431964</v>
+        <v>0.014310705676011518</v>
       </c>
       <c r="F64" t="n">
         <v>0.027533865594183294</v>
       </c>
       <c r="G64" t="n">
-        <v>0.035400684335378525</v>
+        <v>0.03684108776686497</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65">
@@ -2761,25 +2806,25 @@
         <v>4.0</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D65" t="n">
         <v>0.011363933613431706</v>
       </c>
       <c r="E65" t="n">
-        <v>0.015980531643888338</v>
+        <v>0.016868338957437688</v>
       </c>
       <c r="F65" t="n">
         <v>0.36324182473049244</v>
       </c>
       <c r="G65" t="n">
-        <v>0.40360202747832497</v>
+        <v>0.39664337183214693</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66">
@@ -2790,25 +2835,25 @@
         <v>2.0</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D66" t="n">
         <v>0.013159090003459025</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01822027846632788</v>
+        <v>0.01923251615890165</v>
       </c>
       <c r="F66" t="n">
         <v>0.6935561852017014</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7013489513275633</v>
+        <v>0.7009344424910812</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I66" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67">
@@ -2819,25 +2864,25 @@
         <v>17.0</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D67" t="n">
         <v>0.013884720779177056</v>
       </c>
       <c r="E67" t="n">
-        <v>0.018933710153423256</v>
+        <v>0.01998558293972455</v>
       </c>
       <c r="F67" t="n">
         <v>1.0882788452493996E-13</v>
       </c>
       <c r="G67" t="n">
-        <v>3.273996130996653E-12</v>
+        <v>3.4558848049409117E-12</v>
       </c>
       <c r="H67" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I67" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
@@ -2845,28 +2890,28 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D68" t="n">
-        <v>0.017495085667530608</v>
+        <v>0.014855846364428209</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02325088576246493</v>
+        <v>0.02106425977045791</v>
       </c>
       <c r="F68" t="n">
-        <v>1.8033251377605108E-8</v>
+        <v>0.1825303652133524</v>
       </c>
       <c r="G68" t="n">
-        <v>4.773507717601352E-8</v>
+        <v>0.21146810603985947</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I68" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69">
@@ -2874,28 +2919,28 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D69" t="n">
-        <v>0.017567335909417947</v>
+        <v>0.017495085667530608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02325088576246493</v>
+        <v>0.02418691175934355</v>
       </c>
       <c r="F69" t="n">
-        <v>2.605520880545467E-5</v>
+        <v>1.8033251377605108E-8</v>
       </c>
       <c r="G69" t="n">
-        <v>4.2635796227107644E-5</v>
+        <v>5.191390548098441E-8</v>
       </c>
       <c r="H69" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I69" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
@@ -2903,28 +2948,28 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>47.0</v>
+        <v>8.0</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.019426014335150607</v>
+        <v>0.017567335909417947</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02533827956758775</v>
+        <v>0.02418691175934355</v>
       </c>
       <c r="F70" t="n">
-        <v>1.73682704353539E-11</v>
+        <v>2.605520880545467E-5</v>
       </c>
       <c r="G70" t="n">
-        <v>1.2024187224475777E-10</v>
+        <v>4.267663511238265E-5</v>
       </c>
       <c r="H70" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I70" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71">
@@ -2932,28 +2977,28 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>7.0</v>
+        <v>46.0</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02483191684544317</v>
+        <v>0.018526692768353087</v>
       </c>
       <c r="E71" t="n">
-        <v>0.031926750229855506</v>
+        <v>0.02514336875705062</v>
       </c>
       <c r="F71" t="n">
-        <v>5.051461705951851E-6</v>
+        <v>2.0272044873116804E-11</v>
       </c>
       <c r="G71" t="n">
-        <v>8.742914491070511E-6</v>
+        <v>1.4814186638046896E-10</v>
       </c>
       <c r="H71" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I71" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72">
@@ -2961,28 +3006,28 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03018205862964651</v>
+        <v>0.02483191684544317</v>
       </c>
       <c r="E72" t="n">
-        <v>0.038258947558706846</v>
+        <v>0.03322580422981832</v>
       </c>
       <c r="F72" t="n">
-        <v>6.081869179218582E-8</v>
+        <v>5.051461705951851E-6</v>
       </c>
       <c r="G72" t="n">
-        <v>1.3350444539748106E-7</v>
+        <v>9.054506831423129E-6</v>
       </c>
       <c r="H72" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I72" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
@@ -2990,28 +3035,28 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>54.0</v>
+        <v>11.0</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05086807025929872</v>
+        <v>0.03018205862964651</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0635850878241234</v>
+        <v>0.03982354958078359</v>
       </c>
       <c r="F73" t="n">
-        <v>3.4193433143868755E-12</v>
+        <v>6.081869179218582E-8</v>
       </c>
       <c r="G73" t="n">
-        <v>2.9032257153724385E-11</v>
+        <v>1.412038425264647E-7</v>
       </c>
       <c r="H73" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I73" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74">
@@ -3019,28 +3064,28 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>12.0</v>
+        <v>55.0</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07236070670939675</v>
+        <v>0.055767562974774275</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08921183018966722</v>
+        <v>0.07257422578908981</v>
       </c>
       <c r="F74" t="n">
-        <v>4.734396416665952E-8</v>
+        <v>3.0796134588011702E-12</v>
       </c>
       <c r="G74" t="n">
-        <v>1.0652391937498393E-7</v>
+        <v>2.9256327858611114E-11</v>
       </c>
       <c r="H74" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I74" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
@@ -3048,28 +3093,28 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09505995016309823</v>
+        <v>0.05807546341261823</v>
       </c>
       <c r="E75" t="n">
-        <v>0.11561345290106542</v>
+        <v>0.07455633816484773</v>
       </c>
       <c r="F75" t="n">
-        <v>1.1223647039150458E-12</v>
+        <v>2.142931704849724E-7</v>
       </c>
       <c r="G75" t="n">
-        <v>1.443040333605059E-11</v>
+        <v>4.523966932460529E-7</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76">
@@ -3077,28 +3122,28 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D76" t="n">
-        <v>0.12014085696430415</v>
+        <v>0.06229710862062584</v>
       </c>
       <c r="E76" t="n">
-        <v>0.14348963749040644</v>
+        <v>0.0789096709194594</v>
       </c>
       <c r="F76" t="n">
-        <v>1.0</v>
+        <v>0.036517330478016634</v>
       </c>
       <c r="G76" t="n">
-        <v>1.0</v>
+        <v>0.04688035669475108</v>
       </c>
       <c r="H76" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I76" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77">
@@ -3106,28 +3151,28 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.121169027214121</v>
+        <v>0.07236070670939675</v>
       </c>
       <c r="E77" t="n">
-        <v>0.14348963749040644</v>
+        <v>0.09045088338674594</v>
       </c>
       <c r="F77" t="n">
-        <v>4.71091583517785E-10</v>
+        <v>4.734396416665952E-8</v>
       </c>
       <c r="G77" t="n">
-        <v>1.7665934381916937E-9</v>
+        <v>1.15325040918786E-7</v>
       </c>
       <c r="H77" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I77" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78">
@@ -3135,28 +3180,28 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D78" t="n">
-        <v>0.16282817571707567</v>
+        <v>0.09505995016309823</v>
       </c>
       <c r="E78" t="n">
-        <v>0.19031864694203648</v>
+        <v>0.11728175669473159</v>
       </c>
       <c r="F78" t="n">
-        <v>1.455109391554068E-13</v>
+        <v>1.1223647039150458E-12</v>
       </c>
       <c r="G78" t="n">
-        <v>3.273996130996653E-12</v>
+        <v>1.523209241027562E-11</v>
       </c>
       <c r="H78" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I78" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79">
@@ -3164,28 +3209,28 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.16984483814395515</v>
+        <v>0.12014085696430415</v>
       </c>
       <c r="E79" t="n">
-        <v>0.19597481324302515</v>
+        <v>0.145709589687867</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5543359381293393</v>
+        <v>1.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5869439344898887</v>
+        <v>1.0</v>
       </c>
       <c r="H79" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I79" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80">
@@ -3193,28 +3238,28 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.18947876918618708</v>
+        <v>0.121169027214121</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2158618889462891</v>
+        <v>0.145709589687867</v>
       </c>
       <c r="F80" t="n">
-        <v>0.38320333347443836</v>
+        <v>4.71091583517785E-10</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4205890245451153</v>
+        <v>1.8647375180912324E-9</v>
       </c>
       <c r="H80" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
@@ -3222,28 +3267,28 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1930281004015409</v>
+        <v>0.14499170452932242</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2171566129517335</v>
+        <v>0.17217764912857036</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02886245050180414</v>
+        <v>0.030534192859497534</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03658620486144187</v>
+        <v>0.039736278378798166</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I81" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82">
@@ -3251,28 +3296,28 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2316730388586324</v>
+        <v>0.16282817571707567</v>
       </c>
       <c r="E82" t="n">
-        <v>0.25726057550853737</v>
+        <v>0.19097131719903937</v>
       </c>
       <c r="F82" t="n">
-        <v>2.1268860790723394E-7</v>
+        <v>1.455109391554068E-13</v>
       </c>
       <c r="G82" t="n">
-        <v>4.3504487981025126E-7</v>
+        <v>3.4558848049409117E-12</v>
       </c>
       <c r="H82" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I82" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
@@ -3280,28 +3325,28 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23549965940571158</v>
+        <v>0.16984483814395515</v>
       </c>
       <c r="E83" t="n">
-        <v>0.25726057550853737</v>
+        <v>0.19677145882531388</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6345494887158525</v>
+        <v>0.5543359381293393</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6489710680048492</v>
+        <v>0.5787023529921674</v>
       </c>
       <c r="H83" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I83" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
@@ -3309,28 +3354,28 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D84" t="n">
-        <v>0.23727857165841992</v>
+        <v>0.18947876918618708</v>
       </c>
       <c r="E84" t="n">
-        <v>0.25726057550853737</v>
+        <v>0.21687329003238281</v>
       </c>
       <c r="F84" t="n">
-        <v>0.014730174252160184</v>
+        <v>0.38320333347443836</v>
       </c>
       <c r="G84" t="n">
-        <v>0.019495818863153182</v>
+        <v>0.41368541681899595</v>
       </c>
       <c r="H84" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I84" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
@@ -3341,25 +3386,25 @@
         <v>4.0</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24010987047463486</v>
+        <v>0.1930281004015409</v>
       </c>
       <c r="E85" t="n">
-        <v>0.25726057550853737</v>
+        <v>0.2183055897398379</v>
       </c>
       <c r="F85" t="n">
-        <v>0.007807429947144927</v>
+        <v>0.02886245050180414</v>
       </c>
       <c r="G85" t="n">
-        <v>0.010810287619123745</v>
+        <v>0.03808239996765824</v>
       </c>
       <c r="H85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I85" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86">
@@ -3367,28 +3412,28 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3447663048050713</v>
+        <v>0.2316730388586324</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3650466756759579</v>
+        <v>0.25892869048905975</v>
       </c>
       <c r="F86" t="n">
-        <v>2.1328433056550592E-10</v>
+        <v>2.1268860790723394E-7</v>
       </c>
       <c r="G86" t="n">
-        <v>9.140757024235968E-10</v>
+        <v>4.523966932460529E-7</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I86" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87">
@@ -3399,25 +3444,25 @@
         <v>5.0</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3539796858489064</v>
+        <v>0.23727857165841992</v>
       </c>
       <c r="E87" t="n">
-        <v>0.37044385728373924</v>
+        <v>0.2621100500877894</v>
       </c>
       <c r="F87" t="n">
-        <v>0.011534179240549754</v>
+        <v>0.014730174252160184</v>
       </c>
       <c r="G87" t="n">
-        <v>0.015493673606708626</v>
+        <v>0.02028067469500315</v>
       </c>
       <c r="H87" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I87" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88">
@@ -3425,28 +3470,28 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3930164022219075</v>
+        <v>0.3447663048050713</v>
       </c>
       <c r="E88" t="n">
-        <v>0.40656869195369744</v>
+        <v>0.37646895352277904</v>
       </c>
       <c r="F88" t="n">
-        <v>9.598284380022304E-8</v>
+        <v>2.1328433056550592E-10</v>
       </c>
       <c r="G88" t="n">
-        <v>2.00894324233025E-7</v>
+        <v>9.648576858915744E-10</v>
       </c>
       <c r="H88" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I88" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89">
@@ -3454,28 +3499,28 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4381696920452852</v>
+        <v>0.3539796858489064</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4481280941372235</v>
+        <v>0.3785962064175837</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0031201930920619044</v>
+        <v>0.011534179240549754</v>
       </c>
       <c r="G89" t="n">
-        <v>0.00460356357845199</v>
+        <v>0.0161139268801798</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I89" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90">
@@ -3483,28 +3528,28 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5207044676917727</v>
+        <v>0.3546848670648942</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5265550796883095</v>
+        <v>0.3785962064175837</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06388389981338827</v>
+        <v>2.2835023362892656E-5</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07876097237267046</v>
+        <v>3.805837227148776E-5</v>
       </c>
       <c r="H90" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91">
@@ -3512,28 +3557,173 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.3930164022219075</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4148506467897912</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9.598284380022304E-8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.1205512002374857E-7</v>
+      </c>
+      <c r="H91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4381696920452852</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4574298982890341</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0031201930920619044</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.00463153662102939</v>
+      </c>
+      <c r="H92" t="s">
+        <v>194</v>
+      </c>
+      <c r="I92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.5207044676917727</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.5376839612034608</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.06388389981338827</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.07985487476673533</v>
+      </c>
+      <c r="H93" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="n">
         <v>2.0</v>
       </c>
-      <c r="C91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5615583692341148</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.5736348933036657</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.5956539852435108</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.6084637483670271</v>
+      </c>
+      <c r="H94" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9033170508293076</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.9125733491283992</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F95" t="n">
+        <v>0.09158356829225249</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.11013213908562008</v>
+      </c>
+      <c r="H95" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="n">
         <v>0.9125733491283992</v>
       </c>
-      <c r="F91" t="n">
+      <c r="E96" t="n">
+        <v>0.9125733491283992</v>
+      </c>
+      <c r="F96" t="n">
         <v>0.594720063989312</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.6152276524027366</v>
-      </c>
-      <c r="H91" t="s">
-        <v>188</v>
-      </c>
-      <c r="I91" t="s">
-        <v>278</v>
+      <c r="G96" t="n">
+        <v>0.6084637483670271</v>
+      </c>
+      <c r="H96" t="s">
+        <v>198</v>
+      </c>
+      <c r="I96" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/KEGG_raw_data/PNA79_16h_vs_H2O_16h_KEGG_FNN_16h.xlsx
+++ b/analysis/KEGG_raw_data/PNA79_16h_vs_H2O_16h_KEGG_FNN_16h.xlsx
@@ -47,12 +47,12 @@
     <t>fnu04980</t>
   </si>
   <si>
+    <t>fnu03070</t>
+  </si>
+  <si>
     <t>fnu03440</t>
   </si>
   <si>
-    <t>fnu03070</t>
-  </si>
-  <si>
     <t>fnu02060</t>
   </si>
   <si>
@@ -296,15 +296,15 @@
     <t>fnu00330</t>
   </si>
   <si>
+    <t>fnu01501</t>
+  </si>
+  <si>
     <t>fnu00270</t>
   </si>
   <si>
     <t>fnu00521</t>
   </si>
   <si>
-    <t>fnu01501</t>
-  </si>
-  <si>
     <t>fnu00052</t>
   </si>
   <si>
@@ -338,12 +338,12 @@
     <t>Cobalamin transport and metabolism</t>
   </si>
   <si>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
     <t>Homologous recombination</t>
   </si>
   <si>
-    <t>Bacterial secretion system</t>
-  </si>
-  <si>
     <t>Phosphotransferase system (PTS)</t>
   </si>
   <si>
@@ -584,15 +584,15 @@
     <t>Arginine and proline metabolism</t>
   </si>
   <si>
+    <t>beta-Lactam resistance</t>
+  </si>
+  <si>
     <t>Cysteine and methionine metabolism</t>
   </si>
   <si>
     <t>Streptomycin biosynthesis</t>
   </si>
   <si>
-    <t>beta-Lactam resistance</t>
-  </si>
-  <si>
     <t>Galactose metabolism</t>
   </si>
   <si>
@@ -620,12 +620,12 @@
     <t>cds-C4N14_04180;cds-C4N14_05600</t>
   </si>
   <si>
+    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05765;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
+  </si>
+  <si>
     <t>cds-C4N14_04335;cds-C4N14_04465;cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_10095;cds-C4N14_09560;cds-C4N14_09505;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_06635;cds-C4N14_06360;cds-C4N14_06045;cds-C4N14_05595;cds-C4N14_10345;cds-C4N14_10885;cds-C4N14_00445;cds-C4N14_00855;cds-C4N14_03915;cds-C4N14_02900;cds-C4N14_02340</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
-  </si>
-  <si>
     <t>cds-C4N14_09095;cds-C4N14_09090;cds-C4N14_09080;cds-C4N14_07595;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_00270;cds-C4N14_01480;cds-C4N14_01530;cds-C4N14_01535;cds-C4N14_03445</t>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <t>cds-C4N14_06380;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
     <t>cds-C4N14_02800;cds-C4N14_04385;cds-C4N14_04670;cds-C4N14_05180;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_08240;cds-C4N14_06915;cds-C4N14_06555;cds-C4N14_06310;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10310;cds-C4N14_10535;cds-C4N14_00215;cds-C4N14_01395</t>
@@ -773,7 +773,7 @@
     <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09260;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_03815</t>
   </si>
   <si>
-    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_05765;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
   </si>
   <si>
     <t>cds-C4N14_05280;cds-C4N14_05800;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_03065;cds-C4N14_02215</t>
@@ -785,7 +785,7 @@
     <t>cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720</t>
   </si>
   <si>
-    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09805;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
+    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
   </si>
   <si>
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
@@ -869,15 +869,15 @@
     <t>cds-C4N14_09955;cds-C4N14_09725;cds-C4N14_08445;cds-C4N14_06875;cds-C4N14_06380</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
+  </si>
+  <si>
     <t>cds-C4N14_04180;cds-C4N14_05175;cds-C4N14_09115;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06275;cds-C4N14_06030;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10525;cds-C4N14_00370;cds-C4N14_01300;cds-C4N14_01305</t>
   </si>
   <si>
     <t>cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
-    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
-  </si>
-  <si>
     <t>cds-C4N14_05280;cds-C4N14_10105;cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01055;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
@@ -890,7 +890,7 @@
     <t>cds-C4N14_04125;cds-C4N14_10145</t>
   </si>
   <si>
-    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
   </si>
   <si>
     <t>cds-C4N14_05905;cds-C4N14_01035</t>
@@ -985,7 +985,7 @@
         <v>3.118702510104315E-8</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4492561749638744E-6</v>
+        <v>2.3379419095053504E-6</v>
       </c>
       <c r="F2" t="n">
         <v>1.0492062423686906E-8</v>
@@ -1014,7 +1014,7 @@
         <v>6.024662789391541E-8</v>
       </c>
       <c r="E3" t="n">
-        <v>2.4492561749638744E-6</v>
+        <v>2.3379419095053504E-6</v>
       </c>
       <c r="F3" t="n">
         <v>2.222203470992412E-8</v>
@@ -1043,7 +1043,7 @@
         <v>7.734493184096446E-8</v>
       </c>
       <c r="E4" t="n">
-        <v>2.4492561749638744E-6</v>
+        <v>2.3379419095053504E-6</v>
       </c>
       <c r="F4" t="n">
         <v>0.20968105746716587</v>
@@ -1063,22 +1063,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>2.537235246748634E-7</v>
+        <v>9.84396593475937E-8</v>
       </c>
       <c r="E5" t="n">
-        <v>6.025933711028006E-6</v>
+        <v>2.3379419095053504E-6</v>
       </c>
       <c r="F5" t="n">
-        <v>6.313183199375452E-13</v>
+        <v>5.088907095896801E-12</v>
       </c>
       <c r="G5" t="n">
-        <v>9.995873399011133E-12</v>
+        <v>4.028718117584967E-11</v>
       </c>
       <c r="H5" t="s">
         <v>108</v>
@@ -1092,22 +1092,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n">
-        <v>5.699480170183265E-7</v>
+        <v>2.537235246748634E-7</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0829012323348202E-5</v>
+        <v>4.820746968822404E-6</v>
       </c>
       <c r="F6" t="n">
-        <v>1.2129185799125542E-11</v>
+        <v>6.313183199375452E-13</v>
       </c>
       <c r="G6" t="n">
-        <v>9.602272090974388E-11</v>
+        <v>9.995873399011133E-12</v>
       </c>
       <c r="H6" t="s">
         <v>109</v>
@@ -1136,7 +1136,7 @@
         <v>2.2836197717035845E-12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.4355974513270633E-11</v>
+        <v>2.480173516231357E-11</v>
       </c>
       <c r="H7" t="s">
         <v>110</v>
@@ -1368,7 +1368,7 @@
         <v>2.068487754954616E-5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.509041727155152E-5</v>
+        <v>3.447479591591027E-5</v>
       </c>
       <c r="H15" t="s">
         <v>117</v>
@@ -1449,13 +1449,13 @@
         <v>9.220751580354018E-6</v>
       </c>
       <c r="E18" t="n">
-        <v>5.0792929788510484E-5</v>
+        <v>5.107640719249817E-5</v>
       </c>
       <c r="F18" t="n">
         <v>1.7958311539144142E-5</v>
       </c>
       <c r="G18" t="n">
-        <v>3.101890174943079E-5</v>
+        <v>3.0464992789619528E-5</v>
       </c>
       <c r="H18" t="s">
         <v>120</v>
@@ -1478,13 +1478,13 @@
         <v>9.677635046999654E-6</v>
       </c>
       <c r="E19" t="n">
-        <v>5.0792929788510484E-5</v>
+        <v>5.107640719249817E-5</v>
       </c>
       <c r="F19" t="n">
         <v>0.09022046602117231</v>
       </c>
       <c r="G19" t="n">
-        <v>0.10988390092322269</v>
+        <v>0.10849296546849835</v>
       </c>
       <c r="H19" t="s">
         <v>121</v>
@@ -1498,22 +1498,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>356.0</v>
+        <v>355.0</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0158585957702097E-5</v>
+        <v>1.0259965088563022E-5</v>
       </c>
       <c r="E20" t="n">
-        <v>5.0792929788510484E-5</v>
+        <v>5.119604252784571E-5</v>
       </c>
       <c r="F20" t="n">
-        <v>2.307408111783534E-12</v>
+        <v>2.3496380680086543E-12</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4355974513270633E-11</v>
+        <v>2.480173516231357E-11</v>
       </c>
       <c r="H20" t="s">
         <v>122</v>
@@ -1745,7 +1745,7 @@
         <v>4.825183036048958E-9</v>
       </c>
       <c r="G28" t="n">
-        <v>1.6371156729451822E-8</v>
+        <v>1.6977495867579666E-8</v>
       </c>
       <c r="H28" t="s">
         <v>130</v>
@@ -1919,7 +1919,7 @@
         <v>7.86587697751729E-6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.383811690489153E-5</v>
+        <v>1.3586514779348046E-5</v>
       </c>
       <c r="H34" t="s">
         <v>136</v>
@@ -2209,7 +2209,7 @@
         <v>0.006119214310630527</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008807959992574244</v>
+        <v>0.008943467069383077</v>
       </c>
       <c r="H44" t="s">
         <v>146</v>
@@ -2383,7 +2383,7 @@
         <v>0.00874419917908365</v>
       </c>
       <c r="G50" t="n">
-        <v>0.012398491373327564</v>
+        <v>0.012586347303226466</v>
       </c>
       <c r="H50" t="s">
         <v>152</v>
@@ -2542,22 +2542,22 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C56" t="s">
         <v>103</v>
       </c>
       <c r="D56" t="n">
-        <v>9.046732143172543E-4</v>
+        <v>0.00134999240876084</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0015626173701843483</v>
+        <v>0.0023318050696778145</v>
       </c>
       <c r="F56" t="n">
-        <v>4.316640926772654E-9</v>
+        <v>5.531496605322563E-9</v>
       </c>
       <c r="G56" t="n">
-        <v>1.5188181038644523E-8</v>
+        <v>1.8767577768058693E-8</v>
       </c>
       <c r="H56" t="s">
         <v>158</v>
@@ -2658,22 +2658,22 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C60" t="s">
         <v>103</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004841837502421171</v>
+        <v>0.006038987932431896</v>
       </c>
       <c r="E60" t="n">
-        <v>0.007796179029322225</v>
+        <v>0.009723794128492036</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004504672786113611</v>
+        <v>0.014433251327414846</v>
       </c>
       <c r="G60" t="n">
-        <v>0.006583752533550662</v>
+        <v>0.020164101119182504</v>
       </c>
       <c r="H60" t="s">
         <v>162</v>
@@ -3021,7 +3021,7 @@
         <v>5.051461705951851E-6</v>
       </c>
       <c r="G72" t="n">
-        <v>9.054506831423129E-6</v>
+        <v>8.886830778989367E-6</v>
       </c>
       <c r="H72" t="s">
         <v>174</v>
@@ -3470,22 +3470,22 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3447663048050713</v>
+        <v>0.3066127122433679</v>
       </c>
       <c r="E88" t="n">
-        <v>0.37646895352277904</v>
+        <v>0.3348069846335627</v>
       </c>
       <c r="F88" t="n">
-        <v>2.1328433056550592E-10</v>
+        <v>3.077359651526373E-6</v>
       </c>
       <c r="G88" t="n">
-        <v>9.648576858915744E-10</v>
+        <v>5.516022016886896E-6</v>
       </c>
       <c r="H88" t="s">
         <v>190</v>
@@ -3499,22 +3499,22 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="C89" t="s">
         <v>103</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3539796858489064</v>
+        <v>0.3447663048050713</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3785962064175837</v>
+        <v>0.37219089723274745</v>
       </c>
       <c r="F89" t="n">
-        <v>0.011534179240549754</v>
+        <v>2.1328433056550592E-10</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0161139268801798</v>
+        <v>9.648576858915744E-10</v>
       </c>
       <c r="H89" t="s">
         <v>191</v>
@@ -3528,22 +3528,22 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3546848670648942</v>
+        <v>0.3539796858489064</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3785962064175837</v>
+        <v>0.37784348489490005</v>
       </c>
       <c r="F90" t="n">
-        <v>2.2835023362892656E-5</v>
+        <v>0.011534179240549754</v>
       </c>
       <c r="G90" t="n">
-        <v>3.805837227148776E-5</v>
+        <v>0.01635443325152577</v>
       </c>
       <c r="H90" t="s">
         <v>192</v>
@@ -3673,22 +3673,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9033170508293076</v>
+        <v>0.7707494995739655</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9125733491283992</v>
+        <v>0.7789489623353908</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09158356829225249</v>
+        <v>0.07097349274490315</v>
       </c>
       <c r="G95" t="n">
-        <v>0.11013213908562008</v>
+        <v>0.08644207449699742</v>
       </c>
       <c r="H95" t="s">
         <v>197</v>
